--- a/data/dataframe redes sociales.xlsx
+++ b/data/dataframe redes sociales.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime García Velasco\Desktop\Proyecto\datos_proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AFEB80-E326-4EC4-B4BA-3D18B96C7128}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C900806-32D6-45FE-BE8F-A8A5264AFA3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839C8275-1F38-4421-BF6B-9EB527693D54}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Variables redes sociales" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="24">
   <si>
     <t>NO</t>
   </si>
@@ -45,16 +45,7 @@
     <t>PRIVADO</t>
   </si>
   <si>
-    <t>moderado</t>
-  </si>
-  <si>
-    <t>agresivo</t>
-  </si>
-  <si>
     <t>PÚBLICO</t>
-  </si>
-  <si>
-    <t>conservador</t>
   </si>
   <si>
     <t>FotoFB</t>
@@ -105,7 +96,16 @@
     <t>PublicacionesINST</t>
   </si>
   <si>
-    <t>Perfil_inversor</t>
+    <t>LikesFB</t>
+  </si>
+  <si>
+    <t>LikesINST</t>
+  </si>
+  <si>
+    <t>ComentariosFB</t>
+  </si>
+  <si>
+    <t>ComentariosINST</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,13 +152,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,88 +484,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3CBA1A-E069-417E-BAFD-6C7C25B595D3}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D48C8E-B31E-4A87-8A93-5BE6F561EDB3}">
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,14 +571,14 @@
       <c r="D2" s="1">
         <v>400</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
+      <c r="E2" s="1">
+        <v>17</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -584,29 +589,38 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
         <v>39</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>104</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -619,14 +633,14 @@
       <c r="D3" s="1">
         <v>498</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
+      <c r="E3" s="1">
+        <v>41</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -655,11 +669,20 @@
       <c r="P3" s="1">
         <v>0</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,47 +695,56 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>34</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>88</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
         <v>95</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>39</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -725,13 +757,13 @@
       <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
+      <c r="E5" s="1">
+        <v>7</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1">
@@ -761,11 +793,20 @@
       <c r="P5" s="1">
         <v>0</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -778,47 +819,56 @@
       <c r="D6" s="1">
         <v>45</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
+      <c r="E6" s="1">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>6</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
         <v>60</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>578</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -831,47 +881,56 @@
       <c r="D7" s="1">
         <v>130</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
+      <c r="E7" s="1">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
         <v>39</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
         <v>103</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>113</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>27</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S7" s="1">
+        <v>13</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -884,13 +943,13 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1">
@@ -902,29 +961,38 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <v>114</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>127</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <v>5</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S8" s="1">
+        <v>15</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -937,14 +1005,14 @@
       <c r="D9" s="1">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>1</v>
+      <c r="E9" s="1">
+        <v>12</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -955,29 +1023,38 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
         <v>54</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>123</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <v>5</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="S9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1026,11 +1103,20 @@
       <c r="P10" s="1">
         <v>0</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1079,11 +1165,20 @@
       <c r="P11" s="1">
         <v>0</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1132,11 +1227,20 @@
       <c r="P12" s="1">
         <v>0</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1149,47 +1253,56 @@
       <c r="D13" s="1">
         <v>38</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>1</v>
+      <c r="E13" s="1">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>11</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>25</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
         <v>50</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>45</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3</v>
+      </c>
+      <c r="S13" s="1">
         <v>5</v>
       </c>
-      <c r="P13" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,14 +1315,14 @@
       <c r="D14" s="1">
         <v>52</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>1</v>
+      <c r="E14" s="1">
+        <v>19</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1220,29 +1333,38 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
         <v>110</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <v>120</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="1">
-        <v>5</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="1">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1">
+        <v>15</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,13 +1377,13 @@
       <c r="D15" s="1">
         <v>40</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>0</v>
+      <c r="E15" s="1">
+        <v>15</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="1">
@@ -1273,29 +1395,38 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
         <v>41</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <v>85</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1">
+        <v>9</v>
+      </c>
+      <c r="S15" s="1">
         <v>5</v>
       </c>
-      <c r="P15" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1308,13 +1439,13 @@
       <c r="D16" s="1">
         <v>20</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="E16" s="1">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="1">
@@ -1326,29 +1457,38 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
         <v>50</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <v>72</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>6</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,13 +1501,13 @@
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
+      <c r="E17" s="1">
+        <v>8</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="1">
@@ -1379,29 +1519,38 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
         <v>37</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <v>510</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1414,47 +1563,56 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>1</v>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
         <v>28</v>
       </c>
-      <c r="I18" s="1">
+      <c r="K18" s="1">
         <v>68</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
         <v>109</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="1">
         <v>240</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R18" s="1">
         <v>4</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S18" s="1">
+        <v>12</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,47 +1625,56 @@
       <c r="D19" s="1">
         <v>23</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
         <v>111</v>
       </c>
-      <c r="I19" s="1">
+      <c r="K19" s="1">
         <v>384</v>
       </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
         <v>41</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="1">
         <v>411</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="1">
+      <c r="R19" s="1">
         <v>55</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S19" s="1">
+        <v>5</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1520,14 +1687,14 @@
       <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>1</v>
+      <c r="E20" s="1">
+        <v>63</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1538,29 +1705,38 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
         <v>548</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="1">
         <v>624</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1">
         <v>153</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S20" s="1">
+        <v>91</v>
+      </c>
+      <c r="T20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1573,14 +1749,14 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>1</v>
+      <c r="E21" s="1">
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1591,29 +1767,38 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
         <v>29</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
         <v>690</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1626,47 +1811,56 @@
       <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>1</v>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
         <v>129</v>
       </c>
-      <c r="I22" s="1">
+      <c r="K22" s="1">
         <v>55</v>
       </c>
-      <c r="J22" s="1">
+      <c r="L22" s="1">
         <v>10</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="M22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
         <v>1030</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="1">
         <v>859</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P22" s="1">
+      <c r="R22" s="1">
         <v>9</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S22" s="1">
+        <v>295</v>
+      </c>
+      <c r="T22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1682,44 +1876,53 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
         <v>79</v>
       </c>
-      <c r="I23" s="1">
+      <c r="K23" s="1">
         <v>9</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L23" s="1">
         <v>7</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="M23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
         <v>1287</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="1">
         <v>1361</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="1">
+      <c r="R23" s="1">
         <v>9</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S23" s="1">
+        <v>316</v>
+      </c>
+      <c r="T23" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1750,29 +1953,38 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
         <v>1445</v>
       </c>
-      <c r="N24" s="1">
+      <c r="P24" s="1">
         <v>993</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="1">
+      <c r="R24" s="1">
         <v>4</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S24" s="1">
+        <v>344</v>
+      </c>
+      <c r="T24" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1788,44 +2000,53 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
         <v>270</v>
       </c>
-      <c r="I25" s="1">
+      <c r="K25" s="1">
         <v>401</v>
       </c>
-      <c r="J25" s="1">
+      <c r="L25" s="1">
         <v>64</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="M25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
         <v>917</v>
       </c>
-      <c r="N25" s="1">
+      <c r="P25" s="1">
         <v>1022</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="1">
+      <c r="R25" s="1">
         <v>9</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S25" s="1">
+        <v>238</v>
+      </c>
+      <c r="T25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1856,29 +2077,38 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
         <v>2211</v>
       </c>
-      <c r="N26" s="1">
+      <c r="P26" s="1">
         <v>1730</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="1">
+      <c r="R26" s="1">
         <v>16</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S26" s="1">
+        <v>502</v>
+      </c>
+      <c r="T26" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1894,44 +2124,53 @@
       <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
         <v>598</v>
       </c>
-      <c r="I27" s="1">
+      <c r="K27" s="1">
         <v>247</v>
       </c>
-      <c r="J27" s="1">
+      <c r="L27" s="1">
         <v>405</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1">
+      <c r="M27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
         <v>812</v>
       </c>
-      <c r="N27" s="1">
+      <c r="P27" s="1">
         <v>446</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1944,14 +2183,14 @@
       <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>1</v>
+      <c r="E28" s="1">
+        <v>0</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1962,29 +2201,38 @@
       <c r="J28" s="1">
         <v>0</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1">
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
         <v>1202</v>
       </c>
-      <c r="N28" s="1">
+      <c r="P28" s="1">
         <v>1151</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="1">
+      <c r="R28" s="1">
         <v>26</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S28" s="1">
+        <v>327</v>
+      </c>
+      <c r="T28" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -2015,29 +2263,38 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
         <v>953</v>
       </c>
-      <c r="N29" s="1">
+      <c r="P29" s="1">
         <v>908</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P29" s="1">
+      <c r="R29" s="1">
         <v>5</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S29" s="1">
+        <v>246</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -2053,44 +2310,53 @@
       <c r="E30" s="1">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
         <v>15</v>
       </c>
-      <c r="I30" s="1">
+      <c r="K30" s="1">
         <v>82</v>
       </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1">
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1">
         <v>372</v>
       </c>
-      <c r="N30" s="1">
+      <c r="P30" s="1">
         <v>359</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -2106,44 +2372,53 @@
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
         <v>62</v>
       </c>
-      <c r="I31" s="1">
+      <c r="K31" s="1">
         <v>131</v>
       </c>
-      <c r="J31" s="1">
+      <c r="L31" s="1">
         <v>25</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1">
+      <c r="M31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
         <v>922</v>
       </c>
-      <c r="N31" s="1">
+      <c r="P31" s="1">
         <v>973</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P31" s="1">
+      <c r="R31" s="1">
         <v>5</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S31" s="1">
+        <v>252</v>
+      </c>
+      <c r="T31" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -2159,44 +2434,53 @@
       <c r="E32" s="1">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
         <v>146</v>
       </c>
-      <c r="I32" s="1">
+      <c r="K32" s="1">
         <v>123</v>
       </c>
-      <c r="J32" s="1">
+      <c r="L32" s="1">
         <v>64</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1">
+      <c r="M32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
         <v>2203</v>
       </c>
-      <c r="N32" s="1">
+      <c r="P32" s="1">
         <v>1213</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="1">
         <v>13</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S32" s="1">
+        <v>538</v>
+      </c>
+      <c r="T32" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -2212,44 +2496,53 @@
       <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
         <v>158</v>
       </c>
-      <c r="I33" s="1">
+      <c r="K33" s="1">
         <v>162</v>
       </c>
-      <c r="J33" s="1">
+      <c r="L33" s="1">
         <v>68</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1">
+      <c r="M33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
         <v>743</v>
       </c>
-      <c r="N33" s="1">
+      <c r="P33" s="1">
         <v>751</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P33" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>203</v>
+      </c>
+      <c r="T33" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2262,47 +2555,56 @@
       <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
         <v>105</v>
       </c>
-      <c r="I34" s="1">
+      <c r="K34" s="1">
         <v>268</v>
       </c>
-      <c r="J34" s="1">
+      <c r="L34" s="1">
         <v>53</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1">
+      <c r="M34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
         <v>581</v>
       </c>
-      <c r="N34" s="1">
+      <c r="P34" s="1">
         <v>632</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P34" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
+        <v>157</v>
+      </c>
+      <c r="T34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2315,30 +2617,30 @@
       <c r="D35" s="1">
         <v>0</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>1</v>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
         <v>616</v>
       </c>
-      <c r="I35" s="1">
+      <c r="K35" s="1">
         <v>909</v>
       </c>
-      <c r="J35" s="1">
+      <c r="L35" s="1">
         <v>35</v>
       </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
       <c r="M35" s="1">
         <v>0</v>
       </c>
@@ -2351,11 +2653,20 @@
       <c r="P35" s="1">
         <v>0</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2368,47 +2679,56 @@
       <c r="D36" s="1">
         <v>4</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>0</v>
+      <c r="E36" s="1">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
         <v>255</v>
       </c>
-      <c r="I36" s="1">
+      <c r="K36" s="1">
         <v>289</v>
       </c>
-      <c r="J36" s="1">
+      <c r="L36" s="1">
         <v>16</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M36" s="1">
+      <c r="M36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
         <v>659</v>
       </c>
-      <c r="N36" s="1">
+      <c r="P36" s="1">
         <v>623</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P36" s="1">
+      <c r="R36" s="1">
         <v>3</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S36" s="1">
+        <v>181</v>
+      </c>
+      <c r="T36" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -2421,47 +2741,56 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1</v>
+      <c r="E37" s="1">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
         <v>26</v>
       </c>
-      <c r="I37" s="1">
+      <c r="K37" s="1">
         <v>62</v>
       </c>
-      <c r="J37" s="1">
+      <c r="L37" s="1">
         <v>11</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M37" s="1">
+      <c r="M37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
         <v>952</v>
       </c>
-      <c r="N37" s="1">
+      <c r="P37" s="1">
         <v>741</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P37" s="1">
+      <c r="Q37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R37" s="1">
         <v>10</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S37" s="1">
+        <v>267</v>
+      </c>
+      <c r="T37" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2474,47 +2803,56 @@
       <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>1</v>
+      <c r="E38" s="1">
+        <v>27</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
         <v>105</v>
       </c>
-      <c r="I38" s="1">
+      <c r="K38" s="1">
         <v>236</v>
       </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
         <v>356</v>
       </c>
-      <c r="N38" s="1">
+      <c r="P38" s="1">
         <v>431</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P38" s="1">
+      <c r="R38" s="1">
         <v>3</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S38" s="1">
+        <v>94</v>
+      </c>
+      <c r="T38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -2527,44 +2865,53 @@
       <c r="D39" s="1">
         <v>0</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>1</v>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
         <v>43</v>
       </c>
-      <c r="I39" s="1">
+      <c r="K39" s="1">
         <v>73</v>
       </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M39" s="1">
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
         <v>894</v>
       </c>
-      <c r="N39" s="1">
+      <c r="P39" s="1">
         <v>940</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>4</v>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
